--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="500">
   <si>
     <t>lvl</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Short Title</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>Alternate Title</t>
   </si>
   <si>
@@ -37,9 +40,15 @@
     <t>CFO</t>
   </si>
   <si>
+    <t>Head Cashier</t>
+  </si>
+  <si>
     <t>Senior Software Engineer</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Transit Operator</t>
   </si>
   <si>
@@ -49,18 +58,42 @@
     <t>Line Cook</t>
   </si>
   <si>
+    <t>Customer Service Team Manager</t>
+  </si>
+  <si>
     <t>Software Engineer</t>
   </si>
   <si>
+    <t>Ops Support</t>
+  </si>
+  <si>
     <t>Barista</t>
   </si>
   <si>
+    <t>Facilities Design Manager</t>
+  </si>
+  <si>
+    <t>Head of Digital Marketing</t>
+  </si>
+  <si>
     <t>R&amp;D Engineer</t>
   </si>
   <si>
+    <t>assistant store manager</t>
+  </si>
+  <si>
+    <t>hotel auditor</t>
+  </si>
+  <si>
     <t>Strategic Account Manager</t>
   </si>
   <si>
+    <t>Lead Engineering Manager</t>
+  </si>
+  <si>
+    <t>Farm Assistant</t>
+  </si>
+  <si>
     <t>Business Analyst</t>
   </si>
   <si>
@@ -70,15 +103,33 @@
     <t>Desktop Support</t>
   </si>
   <si>
+    <t>Controls Software Engineer</t>
+  </si>
+  <si>
     <t>Administrative Assistant</t>
   </si>
   <si>
+    <t>Vice President of Consulting</t>
+  </si>
+  <si>
+    <t>Product Support Supervisor</t>
+  </si>
+  <si>
     <t>Casino dealer</t>
   </si>
   <si>
+    <t>Air package handler</t>
+  </si>
+  <si>
+    <t>Executive Chef</t>
+  </si>
+  <si>
     <t>Clinical Pharmacist</t>
   </si>
   <si>
+    <t>Radiology Information Systems</t>
+  </si>
+  <si>
     <t>Instrument man</t>
   </si>
   <si>
@@ -97,6 +148,12 @@
     <t>Parts Manager</t>
   </si>
   <si>
+    <t>Instructional Design Manager</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
     <t>Store Manager</t>
   </si>
   <si>
@@ -112,6 +169,9 @@
     <t>Teller</t>
   </si>
   <si>
+    <t>Technical &amp; Operations Manager</t>
+  </si>
+  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -130,6 +190,12 @@
     <t>Application Developer</t>
   </si>
   <si>
+    <t>Assistant Resident Director</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
     <t>Patrolman</t>
   </si>
   <si>
@@ -142,18 +208,48 @@
     <t>Adjuster</t>
   </si>
   <si>
+    <t>Bakery</t>
+  </si>
+  <si>
     <t>Physician Assistant</t>
   </si>
   <si>
+    <t>Senior Network Administrator</t>
+  </si>
+  <si>
+    <t>Front Desk Assistant</t>
+  </si>
+  <si>
+    <t>House Operations Assistant</t>
+  </si>
+  <si>
     <t>Security Architect</t>
   </si>
   <si>
+    <t>Adjunct Instructor of History</t>
+  </si>
+  <si>
+    <t>Data Analyst Processor</t>
+  </si>
+  <si>
+    <t>Systems Project Consultant</t>
+  </si>
+  <si>
+    <t>Social Services Department Head</t>
+  </si>
+  <si>
     <t>Sales Manager</t>
   </si>
   <si>
+    <t>Senior Software Architect</t>
+  </si>
+  <si>
     <t>Crew Member</t>
   </si>
   <si>
+    <t>Senior Logistics Associate</t>
+  </si>
+  <si>
     <t>Electrical Engineer</t>
   </si>
   <si>
@@ -166,6 +262,9 @@
     <t>National Account Manager</t>
   </si>
   <si>
+    <t>owner / operator</t>
+  </si>
+  <si>
     <t>principal</t>
   </si>
   <si>
@@ -187,9 +286,18 @@
     <t>Service Technician</t>
   </si>
   <si>
+    <t>Field Energy Consultant</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
+    <t>Business Analyst / Consultant</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
     <t>Front Desk Receptionist</t>
   </si>
   <si>
@@ -211,6 +319,18 @@
     <t>Superintendent</t>
   </si>
   <si>
+    <t>Customer Support Center Technician</t>
+  </si>
+  <si>
+    <t>Client Services</t>
+  </si>
+  <si>
+    <t>Business Leader</t>
+  </si>
+  <si>
+    <t>President &amp; CEO</t>
+  </si>
+  <si>
     <t>Real Estate Broker</t>
   </si>
   <si>
@@ -220,6 +340,12 @@
     <t>IT Technician</t>
   </si>
   <si>
+    <t>Senior Manager, Customer Success</t>
+  </si>
+  <si>
+    <t>Work Study</t>
+  </si>
+  <si>
     <t>Professor</t>
   </si>
   <si>
@@ -232,30 +358,51 @@
     <t>CMO</t>
   </si>
   <si>
+    <t>Senior VP Global Operations</t>
+  </si>
+  <si>
     <t>News Producer</t>
   </si>
   <si>
+    <t>Information Technology Technician</t>
+  </si>
+  <si>
     <t>Photographer</t>
   </si>
   <si>
     <t>Consultant</t>
   </si>
   <si>
+    <t>Public Services</t>
+  </si>
+  <si>
     <t>IT Consultant</t>
   </si>
   <si>
     <t>Co</t>
   </si>
   <si>
+    <t>Operation</t>
+  </si>
+  <si>
     <t>teacher</t>
   </si>
   <si>
     <t>Project Estimator</t>
   </si>
   <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>IT Operations Manager</t>
+  </si>
+  <si>
     <t>Delivery Manager</t>
   </si>
   <si>
+    <t>Senior Associate</t>
+  </si>
+  <si>
     <t>Business Manager</t>
   </si>
   <si>
@@ -265,15 +412,30 @@
     <t>Cook</t>
   </si>
   <si>
+    <t>Professional Engineer</t>
+  </si>
+  <si>
     <t>Service Center Manager</t>
   </si>
   <si>
+    <t>Item Processing Specialist</t>
+  </si>
+  <si>
+    <t>Senior Security Engineer</t>
+  </si>
+  <si>
     <t>Network Technician</t>
   </si>
   <si>
     <t>Founder</t>
   </si>
   <si>
+    <t>Complex Environmental Manager</t>
+  </si>
+  <si>
+    <t>Head of Project Management</t>
+  </si>
+  <si>
     <t>Network Consultant</t>
   </si>
   <si>
@@ -295,18 +457,33 @@
     <t>Desktop Analyst</t>
   </si>
   <si>
+    <t>Senior Product Manager</t>
+  </si>
+  <si>
     <t>Field Service Engineer</t>
   </si>
   <si>
+    <t>Computer System Specialist</t>
+  </si>
+  <si>
+    <t>Cardiac Monitor Technician</t>
+  </si>
+  <si>
     <t>Engineer</t>
   </si>
   <si>
+    <t>Producer, Writer</t>
+  </si>
+  <si>
     <t>Project Manager</t>
   </si>
   <si>
     <t>Station Manager</t>
   </si>
   <si>
+    <t>food service leader</t>
+  </si>
+  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -319,12 +496,27 @@
     <t>Community Director</t>
   </si>
   <si>
+    <t>Internet Services Manager</t>
+  </si>
+  <si>
+    <t>Lead Tech Supervisor</t>
+  </si>
+  <si>
+    <t>Sales Planning Associate</t>
+  </si>
+  <si>
     <t>Staff Engineer</t>
   </si>
   <si>
     <t>Broadcast Engineer</t>
   </si>
   <si>
+    <t>Senior NOC Engineer</t>
+  </si>
+  <si>
+    <t>Sales and Creative Design</t>
+  </si>
+  <si>
     <t>Project Engineer</t>
   </si>
   <si>
@@ -334,12 +526,42 @@
     <t>Water System Operator</t>
   </si>
   <si>
+    <t>Director of Finance and</t>
+  </si>
+  <si>
+    <t>Managing Partner</t>
+  </si>
+  <si>
     <t>Alderman</t>
   </si>
   <si>
+    <t>Senior Design Manager</t>
+  </si>
+  <si>
+    <t>Luggage assistant</t>
+  </si>
+  <si>
     <t>Substitute Teacher</t>
   </si>
   <si>
+    <t>Production Team Lead</t>
+  </si>
+  <si>
+    <t>ITS Help Desk</t>
+  </si>
+  <si>
+    <t>Scale Master</t>
+  </si>
+  <si>
+    <t>Digital Marketing Specialist</t>
+  </si>
+  <si>
+    <t>Senior Director</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
     <t>Security Officer</t>
   </si>
   <si>
@@ -352,15 +574,33 @@
     <t>Chauffeur</t>
   </si>
   <si>
+    <t>Virtual Reality Developer</t>
+  </si>
+  <si>
     <t>CIO</t>
   </si>
   <si>
+    <t>Sales Operations Manager</t>
+  </si>
+  <si>
+    <t>Technical Application Engineer</t>
+  </si>
+  <si>
     <t>Civil Engineer</t>
   </si>
   <si>
     <t>Server</t>
   </si>
   <si>
+    <t>Probation Parole Officer</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Director Of Event Operations</t>
+  </si>
+  <si>
     <t>Stocker</t>
   </si>
   <si>
@@ -373,27 +613,57 @@
     <t>Purchasing Manager</t>
   </si>
   <si>
+    <t>Low Voltage System Installer</t>
+  </si>
+  <si>
+    <t>Welder Mechanic</t>
+  </si>
+  <si>
     <t>Cardiologist</t>
   </si>
   <si>
     <t>Account Executive</t>
   </si>
   <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>Adjunct Faculty</t>
+  </si>
+  <si>
+    <t>Chemistry Lab Technician</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
     <t>Electricians Helper</t>
   </si>
   <si>
     <t>Database Administrator</t>
   </si>
   <si>
+    <t>Graphic Design Consultant</t>
+  </si>
+  <si>
     <t>Technician</t>
   </si>
   <si>
     <t>Teacher</t>
   </si>
   <si>
+    <t>Pastor of Technology</t>
+  </si>
+  <si>
     <t>Adjunct Instructor</t>
   </si>
   <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Technical Manager</t>
+  </si>
+  <si>
     <t>Auditor</t>
   </si>
   <si>
@@ -406,18 +676,39 @@
     <t>Accountant</t>
   </si>
   <si>
+    <t>Lead Service Technician</t>
+  </si>
+  <si>
     <t>Shuttle Driver</t>
   </si>
   <si>
+    <t>Property Analyst</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Answering Service Operator</t>
+  </si>
+  <si>
+    <t>PC and Network Technician</t>
+  </si>
+  <si>
     <t>Blogger</t>
   </si>
   <si>
     <t>Programmer</t>
   </si>
   <si>
+    <t>Footwear</t>
+  </si>
+  <si>
     <t>Division Manager</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Groundskeeper</t>
   </si>
   <si>
@@ -436,9 +727,15 @@
     <t>IT Manager</t>
   </si>
   <si>
+    <t>Senior Application Administrator</t>
+  </si>
+  <si>
     <t>Machinist</t>
   </si>
   <si>
+    <t>pres</t>
+  </si>
+  <si>
     <t>Inspector</t>
   </si>
   <si>
@@ -457,12 +754,27 @@
     <t>Full Stack Engineer</t>
   </si>
   <si>
+    <t>Senior Technology Consultant</t>
+  </si>
+  <si>
+    <t>ITS Service Center Coordinator</t>
+  </si>
+  <si>
+    <t>Leasing Coordinator</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
     <t>Graduate Teaching Assistant</t>
   </si>
   <si>
     <t>Industrial Maintenance Technician</t>
   </si>
   <si>
+    <t>Professional Expert</t>
+  </si>
+  <si>
     <t>Assistant Attorney General</t>
   </si>
   <si>
@@ -475,6 +787,9 @@
     <t>Operations Manager</t>
   </si>
   <si>
+    <t>Director of Technology &amp; Media</t>
+  </si>
+  <si>
     <t>Security Guard</t>
   </si>
   <si>
@@ -484,6 +799,15 @@
     <t>Service Writer</t>
   </si>
   <si>
+    <t>Relocation Consultant</t>
+  </si>
+  <si>
+    <t>Continuous Improvement Consultant</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Biology</t>
+  </si>
+  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -493,39 +817,78 @@
     <t>Structural Engineer</t>
   </si>
   <si>
+    <t>Director, IS Operations</t>
+  </si>
+  <si>
+    <t>Chief Operating Officer</t>
+  </si>
+  <si>
     <t>Financial Controller</t>
   </si>
   <si>
     <t>Geneticist</t>
   </si>
   <si>
+    <t>Information Security</t>
+  </si>
+  <si>
+    <t>Head of Supplies</t>
+  </si>
+  <si>
+    <t>Principal Developer</t>
+  </si>
+  <si>
     <t>Production Manager</t>
   </si>
   <si>
+    <t>team lead</t>
+  </si>
+  <si>
     <t>Engineering Manager</t>
   </si>
   <si>
+    <t>Operations Staff</t>
+  </si>
+  <si>
     <t>Facilities Manager</t>
   </si>
   <si>
+    <t>Senior National Account Manager</t>
+  </si>
+  <si>
     <t>Graphic Designer</t>
   </si>
   <si>
     <t>Audit Associate</t>
   </si>
   <si>
+    <t>IT Coordinator</t>
+  </si>
+  <si>
+    <t>Hardware Technician</t>
+  </si>
+  <si>
     <t>Dispatcher</t>
   </si>
   <si>
+    <t>Product Assistant</t>
+  </si>
+  <si>
     <t>COLLECTOR</t>
   </si>
   <si>
+    <t>Director Of Software Engineering</t>
+  </si>
+  <si>
     <t>Technical Director</t>
   </si>
   <si>
     <t>Warehouse Lead</t>
   </si>
   <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
     <t>Financial Advisor</t>
   </si>
   <si>
@@ -538,15 +901,33 @@
     <t>Student Activities Director</t>
   </si>
   <si>
+    <t>Senior Global Product Manager</t>
+  </si>
+  <si>
     <t>IT Specialist</t>
   </si>
   <si>
+    <t>Senior Parts Expeditor</t>
+  </si>
+  <si>
+    <t>Senior Business Analyst</t>
+  </si>
+  <si>
     <t>IT Program Manager</t>
   </si>
   <si>
     <t>Director of Sales</t>
   </si>
   <si>
+    <t>Backroom Team Member</t>
+  </si>
+  <si>
+    <t>Vice President, Principal</t>
+  </si>
+  <si>
+    <t>Creative Production Manager</t>
+  </si>
+  <si>
     <t>Mortgage Loan Originator</t>
   </si>
   <si>
@@ -556,15 +937,33 @@
     <t>3D Artist</t>
   </si>
   <si>
+    <t>law enforcement</t>
+  </si>
+  <si>
+    <t>Research and Development Engineer</t>
+  </si>
+  <si>
     <t>Team Leader</t>
   </si>
   <si>
     <t>Sales Representative</t>
   </si>
   <si>
+    <t>Senior Media Specialist</t>
+  </si>
+  <si>
+    <t>Performance Marketing Analyst</t>
+  </si>
+  <si>
     <t>Truck Driver</t>
   </si>
   <si>
+    <t>Associate Scientist</t>
+  </si>
+  <si>
+    <t>Quality Assurance Manager</t>
+  </si>
+  <si>
     <t>Massage Therapist</t>
   </si>
   <si>
@@ -577,9 +976,15 @@
     <t>Chief Executives</t>
   </si>
   <si>
+    <t>First-Line Supervisors of Office and Administrative Support Workers</t>
+  </si>
+  <si>
     <t>Software Developers, Systems Software</t>
   </si>
   <si>
+    <t>Allergists and Immunologists</t>
+  </si>
+  <si>
     <t>Bus Drivers, Transit and Intercity</t>
   </si>
   <si>
@@ -589,18 +994,39 @@
     <t>Chefs and Head Cooks</t>
   </si>
   <si>
+    <t>Automotive Engineers</t>
+  </si>
+  <si>
     <t>Software Developers, Applications</t>
   </si>
   <si>
+    <t>Medical Appliance Technicians</t>
+  </si>
+  <si>
     <t>Baristas</t>
   </si>
   <si>
+    <t>Administrative Services Managers</t>
+  </si>
+  <si>
+    <t>Advertising and Promotions Managers</t>
+  </si>
+  <si>
     <t>Computer and Information Research Scientists</t>
   </si>
   <si>
+    <t>Hotel, Motel, and Resort Desk Clerks</t>
+  </si>
+  <si>
     <t>First-Line Supervisors of Non-Retail Sales Workers</t>
   </si>
   <si>
+    <t>Computer and Information Systems Managers</t>
+  </si>
+  <si>
+    <t>Agricultural Sciences Teachers, Postsecondary</t>
+  </si>
+  <si>
     <t>Management Analysts</t>
   </si>
   <si>
@@ -610,12 +1036,21 @@
     <t>Computer User Support Specialists</t>
   </si>
   <si>
+    <t>Computer Operators</t>
+  </si>
+  <si>
     <t>Business Operations Specialists, All Other</t>
   </si>
   <si>
+    <t>Industrial-Organizational Psychologists</t>
+  </si>
+  <si>
     <t>Gaming Dealers</t>
   </si>
   <si>
+    <t>Inspectors, Testers, Sorters, Samplers, and Weighers</t>
+  </si>
+  <si>
     <t>Pharmacists</t>
   </si>
   <si>
@@ -631,6 +1066,9 @@
     <t>First-Line Supervisors of Retail Sales Workers</t>
   </si>
   <si>
+    <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
+  </si>
+  <si>
     <t>Computer Programmers</t>
   </si>
   <si>
@@ -640,6 +1078,9 @@
     <t>Tellers</t>
   </si>
   <si>
+    <t>Aquacultural Managers</t>
+  </si>
+  <si>
     <t>Brownfield Redevelopment Specialists and Site Managers</t>
   </si>
   <si>
@@ -649,7 +1090,7 @@
     <t>Stock Clerks- Stockroom, Warehouse, or Storage Yard</t>
   </si>
   <si>
-    <t>Computer and Information Systems Managers</t>
+    <t>First-Line Supervisors of Personal Service Workers</t>
   </si>
   <si>
     <t>Transit and Railroad Police</t>
@@ -664,18 +1105,42 @@
     <t>Insurance Adjusters, Examiners, and Investigators</t>
   </si>
   <si>
+    <t>Bakers</t>
+  </si>
+  <si>
     <t>Physician Assistants</t>
   </si>
   <si>
+    <t>Computer Network Support Specialists</t>
+  </si>
+  <si>
+    <t>Amusement and Recreation Attendants</t>
+  </si>
+  <si>
     <t>Information Security Analysts</t>
   </si>
   <si>
+    <t>Art, Drama, and Music Teachers, Postsecondary</t>
+  </si>
+  <si>
+    <t>Medical Records and Health Information Technicians</t>
+  </si>
+  <si>
+    <t>Accountants</t>
+  </si>
+  <si>
+    <t>Art Directors</t>
+  </si>
+  <si>
     <t>Sales Managers</t>
   </si>
   <si>
     <t>Fishers and Related Fishing Workers</t>
   </si>
   <si>
+    <t>Industrial Engineering Technologists</t>
+  </si>
+  <si>
     <t>Electrical Engineers</t>
   </si>
   <si>
@@ -685,6 +1150,9 @@
     <t>Computer Systems Analysts</t>
   </si>
   <si>
+    <t>First-Line Supervisors of Agricultural Crop and Horticultural Workers</t>
+  </si>
+  <si>
     <t>Education Administrators, Preschool and Childcare Center/Program</t>
   </si>
   <si>
@@ -703,12 +1171,12 @@
     <t>Electro-Mechanical Technicians</t>
   </si>
   <si>
+    <t>Construction Managers</t>
+  </si>
+  <si>
     <t>Fire-Prevention and Protection Engineers</t>
   </si>
   <si>
-    <t>Hotel, Motel, and Resort Desk Clerks</t>
-  </si>
-  <si>
     <t>Physicists</t>
   </si>
   <si>
@@ -730,12 +1198,24 @@
     <t>Chemical Engineers</t>
   </si>
   <si>
+    <t>Sales Engineers</t>
+  </si>
+  <si>
+    <t>Education Administrators, Postsecondary</t>
+  </si>
+  <si>
     <t>Continuous Mining Machine Operators</t>
   </si>
   <si>
+    <t>Architectural and Engineering Managers</t>
+  </si>
+  <si>
     <t>Producers</t>
   </si>
   <si>
+    <t>Bookkeeping, Accounting, and Auditing Clerks</t>
+  </si>
+  <si>
     <t>Photographers</t>
   </si>
   <si>
@@ -748,21 +1228,36 @@
     <t>Cost Estimators</t>
   </si>
   <si>
+    <t>Medical and Health Services Managers</t>
+  </si>
+  <si>
+    <t>Business Intelligence Analysts</t>
+  </si>
+  <si>
     <t>Storage and Distribution Managers</t>
   </si>
   <si>
+    <t>Agricultural Technicians</t>
+  </si>
+  <si>
     <t>General and Operations Managers</t>
   </si>
   <si>
     <t>Aerospace Engineers</t>
   </si>
   <si>
+    <t>Agricultural Engineers</t>
+  </si>
+  <si>
     <t>Financial Managers, Branch or Department</t>
   </si>
   <si>
     <t>Foundry Mold and Coremakers</t>
   </si>
   <si>
+    <t>Arbitrators, Mediators, and Conciliators</t>
+  </si>
+  <si>
     <t>Computer Network Architects</t>
   </si>
   <si>
@@ -775,16 +1270,19 @@
     <t>Boilermakers</t>
   </si>
   <si>
-    <t>Agricultural Engineers</t>
-  </si>
-  <si>
-    <t>Construction Managers</t>
+    <t>Atmospheric and Space Scientists</t>
+  </si>
+  <si>
+    <t>Cardiovascular Technologists and Technicians</t>
+  </si>
+  <si>
+    <t>Insurance Sales Agents</t>
   </si>
   <si>
     <t>Transportation Managers</t>
   </si>
   <si>
-    <t>Administrative Services Managers</t>
+    <t>First-Line Supervisors of Food Preparation and Serving Workers</t>
   </si>
   <si>
     <t>Military Enlisted Tactical Operations and Air/Weapons Specialists and Crew Members, All Other</t>
@@ -793,13 +1291,19 @@
     <t>Online Merchants</t>
   </si>
   <si>
+    <t>Nuclear Medicine Technologists</t>
+  </si>
+  <si>
+    <t>Fundraisers</t>
+  </si>
+  <si>
     <t>Broadcast Technicians</t>
   </si>
   <si>
     <t>Technical Directors/Managers</t>
   </si>
   <si>
-    <t>Architectural and Engineering Managers</t>
+    <t>Telecommunications Engineering Specialists</t>
   </si>
   <si>
     <t>First-Line Supervisors of Correctional Officers</t>
@@ -808,12 +1312,30 @@
     <t>Water and Wastewater Treatment Plant and System Operators</t>
   </si>
   <si>
+    <t>Dermatologists</t>
+  </si>
+  <si>
     <t>Legislators</t>
   </si>
   <si>
+    <t>Architects, Except Landscape and Naval</t>
+  </si>
+  <si>
+    <t>Extruding, Forming, Pressing, and Compacting Machine Setters, Operators, and Tenders</t>
+  </si>
+  <si>
     <t>Middle School Teachers, Except Special and Career/Technical Education</t>
   </si>
   <si>
+    <t>First-Line Supervisors of Mechanics, Installers, and Repairers</t>
+  </si>
+  <si>
+    <t>Industrial Machinery Mechanics</t>
+  </si>
+  <si>
+    <t>Childcare Workers</t>
+  </si>
+  <si>
     <t>Bailiffs</t>
   </si>
   <si>
@@ -826,12 +1348,21 @@
     <t>Taxi Drivers and Chauffeurs</t>
   </si>
   <si>
+    <t>Multimedia Artists and Animators</t>
+  </si>
+  <si>
     <t>Civil Engineers</t>
   </si>
   <si>
     <t>Combined Food Preparation and Serving Workers, Including Fast Food</t>
   </si>
   <si>
+    <t>Probation Officers and Correctional Treatment Specialists</t>
+  </si>
+  <si>
+    <t>Cleaners of Vehicles and Equipment</t>
+  </si>
+  <si>
     <t>Stock Clerks, Sales Floor</t>
   </si>
   <si>
@@ -841,10 +1372,19 @@
     <t>Purchasing Managers</t>
   </si>
   <si>
+    <t>Electronic Home Entertainment Equipment Installers and Repairers</t>
+  </si>
+  <si>
     <t>Physicians and Surgeons, All Other</t>
   </si>
   <si>
-    <t>Advertising and Promotions Managers</t>
+    <t>Anthropology and Archeology Teachers, Postsecondary</t>
+  </si>
+  <si>
+    <t>Chemical Technicians</t>
+  </si>
+  <si>
+    <t>Adapted Physical Education Specialists</t>
   </si>
   <si>
     <t>Helpers--Electricians</t>
@@ -853,15 +1393,27 @@
     <t>Database Administrators</t>
   </si>
   <si>
+    <t>Clergy</t>
+  </si>
+  <si>
     <t>Auditors</t>
   </si>
   <si>
-    <t>Accountants</t>
+    <t>Cargo and Freight Agents</t>
+  </si>
+  <si>
+    <t>Special Education Teachers, Kindergarten and Elementary School</t>
+  </si>
+  <si>
+    <t>Switchboard Operators, Including Answering Service</t>
   </si>
   <si>
     <t>Reporters and Correspondents</t>
   </si>
   <si>
+    <t>Sales Representatives, Wholesale and Manufacturing, Except Technical and Scientific Products</t>
+  </si>
+  <si>
     <t>Landscaping and Groundskeeping Workers</t>
   </si>
   <si>
@@ -880,15 +1432,18 @@
     <t>Machinists</t>
   </si>
   <si>
+    <t>Desktop Publishers</t>
+  </si>
+  <si>
     <t>Licensing Examiners and Inspectors</t>
   </si>
   <si>
-    <t>Amusement and Recreation Attendants</t>
-  </si>
-  <si>
     <t>Engineers, All Other</t>
   </si>
   <si>
+    <t>Actuaries</t>
+  </si>
+  <si>
     <t>Graduate Teaching Assistants</t>
   </si>
   <si>
@@ -898,9 +1453,6 @@
     <t>Oral and Maxillofacial Surgeons</t>
   </si>
   <si>
-    <t>First-Line Supervisors of Office and Administrative Support Workers</t>
-  </si>
-  <si>
     <t>Security Guards</t>
   </si>
   <si>
@@ -910,15 +1462,24 @@
     <t>Counter and Rental Clerks</t>
   </si>
   <si>
+    <t>Compensation, Benefits, and Job Analysis Specialists</t>
+  </si>
+  <si>
+    <t>Sustainability Specialists</t>
+  </si>
+  <si>
     <t>Treasurers and Controllers</t>
   </si>
   <si>
-    <t>Architects, Except Landscape and Naval</t>
-  </si>
-  <si>
     <t>Geneticists</t>
   </si>
   <si>
+    <t>Bioinformatics Scientists</t>
+  </si>
+  <si>
+    <t>Clinical Psychologists</t>
+  </si>
+  <si>
     <t>First-Line Supervisors of Helpers, Laborers, and Material Movers, Hand</t>
   </si>
   <si>
@@ -928,7 +1489,7 @@
     <t>Biologists</t>
   </si>
   <si>
-    <t>Education Administrators, Postsecondary</t>
+    <t>Production, Planning, and Expediting Clerks</t>
   </si>
   <si>
     <t>Information Technology Project Managers</t>
@@ -941,6 +1502,9 @@
   </si>
   <si>
     <t>Fine Artists, Including Painters, Sculptors, and Illustrators</t>
+  </si>
+  <si>
+    <t>Search Marketing Strategists</t>
   </si>
   <si>
     <t>Paving, Surfacing, and Tamping Equipment Operators</t>
@@ -1307,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1340,21 +1904,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1362,65 +1926,65 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1428,21 +1992,21 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1450,10 +2014,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1461,21 +2025,21 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1483,10 +2047,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1494,21 +2058,21 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1516,10 +2080,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1527,43 +2091,43 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1571,21 +2135,21 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1593,32 +2157,32 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1626,21 +2190,21 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1651,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1659,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1670,21 +2234,21 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1692,43 +2256,43 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1736,21 +2300,21 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1758,10 +2322,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1769,153 +2333,153 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1926,7 +2490,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1937,7 +2501,7 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1948,40 +2512,40 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1992,29 +2556,29 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2022,32 +2586,32 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2055,10 +2619,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2066,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2077,21 +2641,21 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2099,21 +2663,21 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2121,76 +2685,76 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2198,98 +2762,98 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2297,32 +2861,32 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2330,87 +2894,87 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2418,21 +2982,21 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2440,10 +3004,10 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2451,54 +3015,54 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2506,10 +3070,10 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2517,65 +3081,65 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2583,21 +3147,21 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2605,32 +3169,32 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2638,10 +3202,10 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2649,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2660,10 +3224,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2671,10 +3235,10 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2682,18 +3246,21 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2701,10 +3268,10 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2712,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>271</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2723,21 +3290,21 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2745,21 +3312,21 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2767,21 +3334,21 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2789,21 +3356,21 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2811,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2822,21 +3389,21 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2844,10 +3411,10 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2855,32 +3422,32 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2888,32 +3455,32 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>190</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C146" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2921,10 +3488,10 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>279</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2932,32 +3499,32 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2965,21 +3532,21 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C152" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2987,21 +3554,21 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3009,10 +3576,10 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C155" t="s">
-        <v>281</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3020,21 +3587,21 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
-        <v>205</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
-        <v>218</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3042,32 +3609,32 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C158" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C160" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3075,65 +3642,65 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="C161" t="s">
-        <v>265</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C163" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
-        <v>211</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C166" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3141,21 +3708,21 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C167" t="s">
-        <v>288</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3163,32 +3730,32 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C170" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3196,54 +3763,54 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s">
-        <v>290</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3251,10 +3818,10 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3262,10 +3829,10 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>294</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3273,10 +3840,10 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C179" t="s">
-        <v>245</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3284,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C180" t="s">
-        <v>295</v>
+        <v>402</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3295,10 +3862,10 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3306,21 +3873,21 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C182" t="s">
-        <v>191</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>297</v>
+        <v>433</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3328,10 +3895,10 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>298</v>
+        <v>434</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3339,32 +3906,32 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C186" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3372,21 +3939,21 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C188" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C189" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3394,10 +3961,10 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3405,10 +3972,10 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C191" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3416,21 +3983,21 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="C192" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3438,21 +4005,21 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>245</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3460,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3471,43 +4038,43 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C197" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C198" t="s">
-        <v>195</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C199" t="s">
-        <v>279</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C200" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3515,32 +4082,32 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C201" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="C202" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C203" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3548,65 +4115,62 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C204" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C205" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C209" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3614,21 +4178,21 @@
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C210" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C211" t="s">
-        <v>303</v>
+        <v>448</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3636,65 +4200,65 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C212" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C213" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C214" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C215" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C216" t="s">
-        <v>194</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C217" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3702,65 +4266,65 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>307</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
-        <v>203</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C222" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3768,10 +4332,10 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C224" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3779,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C225" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3790,10 +4354,1561 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+      <c r="C227" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>206</v>
+      </c>
+      <c r="C228" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>207</v>
+      </c>
+      <c r="C229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>208</v>
+      </c>
+      <c r="C230" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>175</v>
+      </c>
+      <c r="C231" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>209</v>
+      </c>
+      <c r="C232" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>210</v>
+      </c>
+      <c r="C233" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>131</v>
+      </c>
+      <c r="C236" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>212</v>
+      </c>
+      <c r="C237" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C238" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>214</v>
+      </c>
+      <c r="C239" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>215</v>
+      </c>
+      <c r="C240" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>216</v>
+      </c>
+      <c r="C241" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>217</v>
+      </c>
+      <c r="C243" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>218</v>
+      </c>
+      <c r="C244" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>219</v>
+      </c>
+      <c r="C245" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>167</v>
+      </c>
+      <c r="C246" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>220</v>
+      </c>
+      <c r="C247" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>221</v>
+      </c>
+      <c r="C248" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>121</v>
+      </c>
+      <c r="C249" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>222</v>
+      </c>
+      <c r="C250" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>223</v>
+      </c>
+      <c r="C251" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>224</v>
+      </c>
+      <c r="C252" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>225</v>
+      </c>
+      <c r="C253" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>226</v>
+      </c>
+      <c r="C254" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>227</v>
+      </c>
+      <c r="C255" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>228</v>
+      </c>
+      <c r="C256" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>229</v>
+      </c>
+      <c r="C258" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>230</v>
+      </c>
+      <c r="C259" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>231</v>
+      </c>
+      <c r="C260" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>232</v>
+      </c>
+      <c r="C261" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>233</v>
+      </c>
+      <c r="C262" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>175</v>
+      </c>
+      <c r="C263" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>234</v>
+      </c>
+      <c r="C264" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>235</v>
+      </c>
+      <c r="C265" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>236</v>
+      </c>
+      <c r="C266" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>237</v>
+      </c>
+      <c r="C268" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>238</v>
+      </c>
+      <c r="C269" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>239</v>
+      </c>
+      <c r="C270" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C271" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>241</v>
+      </c>
+      <c r="C272" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>242</v>
+      </c>
+      <c r="C273" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>243</v>
+      </c>
+      <c r="C274" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>244</v>
+      </c>
+      <c r="C275" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>245</v>
+      </c>
+      <c r="C276" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>246</v>
+      </c>
+      <c r="C277" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>93</v>
+      </c>
+      <c r="C278" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>247</v>
+      </c>
+      <c r="C279" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>248</v>
+      </c>
+      <c r="C280" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>249</v>
+      </c>
+      <c r="C281" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>250</v>
+      </c>
+      <c r="C282" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>251</v>
+      </c>
+      <c r="C283" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>252</v>
+      </c>
+      <c r="C284" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>253</v>
+      </c>
+      <c r="C285" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" t="s">
+        <v>254</v>
+      </c>
+      <c r="C287" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>255</v>
+      </c>
+      <c r="C288" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>256</v>
+      </c>
+      <c r="C289" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>257</v>
+      </c>
+      <c r="C290" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
+        <v>258</v>
+      </c>
+      <c r="C291" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>259</v>
+      </c>
+      <c r="C292" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>260</v>
+      </c>
+      <c r="C294" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" t="s">
+        <v>261</v>
+      </c>
+      <c r="C295" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>262</v>
+      </c>
+      <c r="C296" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>263</v>
+      </c>
+      <c r="C297" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
+        <v>264</v>
+      </c>
+      <c r="C298" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>46</v>
+      </c>
+      <c r="C299" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>265</v>
+      </c>
+      <c r="C300" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>266</v>
+      </c>
+      <c r="C301" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>267</v>
+      </c>
+      <c r="C302" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" t="s">
+        <v>268</v>
+      </c>
+      <c r="C303" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>269</v>
+      </c>
+      <c r="C304" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>270</v>
+      </c>
+      <c r="C305" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>271</v>
+      </c>
+      <c r="C306" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" t="s">
+        <v>272</v>
+      </c>
+      <c r="C307" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>273</v>
+      </c>
+      <c r="C308" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>274</v>
+      </c>
+      <c r="C309" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" t="s">
+        <v>275</v>
+      </c>
+      <c r="C310" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>213</v>
+      </c>
+      <c r="C311" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>111</v>
+      </c>
+      <c r="C312" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>276</v>
+      </c>
+      <c r="C313" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" t="s">
+        <v>277</v>
+      </c>
+      <c r="C314" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>278</v>
+      </c>
+      <c r="C315" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>279</v>
+      </c>
+      <c r="C316" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>52</v>
+      </c>
+      <c r="C317" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>74</v>
+      </c>
+      <c r="C318" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>280</v>
+      </c>
+      <c r="C319" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C320" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>281</v>
+      </c>
+      <c r="C321" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>282</v>
+      </c>
+      <c r="C323" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>283</v>
+      </c>
+      <c r="C324" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>284</v>
+      </c>
+      <c r="C325" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" t="s">
+        <v>120</v>
+      </c>
+      <c r="C327" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
+        <v>137</v>
+      </c>
+      <c r="C328" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>285</v>
+      </c>
+      <c r="C329" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>232</v>
+      </c>
+      <c r="C330" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>167</v>
+      </c>
+      <c r="C331" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>286</v>
+      </c>
+      <c r="C332" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>287</v>
+      </c>
+      <c r="C333" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>288</v>
+      </c>
+      <c r="C334" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
+        <v>289</v>
+      </c>
+      <c r="C335" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>290</v>
+      </c>
+      <c r="C336" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>291</v>
+      </c>
+      <c r="C337" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" t="s">
+        <v>292</v>
+      </c>
+      <c r="C338" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
+        <v>293</v>
+      </c>
+      <c r="C339" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" t="s">
+        <v>294</v>
+      </c>
+      <c r="C340" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>295</v>
+      </c>
+      <c r="C341" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342" t="s">
+        <v>296</v>
+      </c>
+      <c r="C342" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>297</v>
+      </c>
+      <c r="C343" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>298</v>
+      </c>
+      <c r="C344" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345" t="s">
+        <v>299</v>
+      </c>
+      <c r="C345" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>300</v>
+      </c>
+      <c r="C346" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>301</v>
+      </c>
+      <c r="C347" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>302</v>
+      </c>
+      <c r="C348" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>303</v>
+      </c>
+      <c r="C349" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>304</v>
+      </c>
+      <c r="C350" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>305</v>
+      </c>
+      <c r="C351" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" t="s">
+        <v>306</v>
+      </c>
+      <c r="C352" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>307</v>
+      </c>
+      <c r="C353" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>308</v>
+      </c>
+      <c r="C354" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>309</v>
+      </c>
+      <c r="C355" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>310</v>
+      </c>
+      <c r="C357" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
         <v>311</v>
+      </c>
+      <c r="C358" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>312</v>
+      </c>
+      <c r="C359" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" t="s">
+        <v>313</v>
+      </c>
+      <c r="C360" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>314</v>
+      </c>
+      <c r="C361" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>315</v>
+      </c>
+      <c r="C362" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>52</v>
+      </c>
+      <c r="C363" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" t="s">
+        <v>316</v>
+      </c>
+      <c r="C364" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>206</v>
+      </c>
+      <c r="C365" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>317</v>
+      </c>
+      <c r="C366" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" t="s">
+        <v>318</v>
+      </c>
+      <c r="C367" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="670">
   <si>
     <t>lvl</t>
   </si>
@@ -31,9 +31,15 @@
     <t>all</t>
   </si>
   <si>
+    <t>poor accuracy</t>
+  </si>
+  <si>
     <t>Alternate Title</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -43,12 +49,18 @@
     <t>Head Cashier</t>
   </si>
   <si>
+    <t>Field Application Scientist</t>
+  </si>
+  <si>
     <t>Senior Software Engineer</t>
   </si>
   <si>
     <t>Owner</t>
   </si>
   <si>
+    <t>Library Technical Assistant II</t>
+  </si>
+  <si>
     <t>Transit Operator</t>
   </si>
   <si>
@@ -61,9 +73,15 @@
     <t>Customer Service Team Manager</t>
   </si>
   <si>
+    <t>Voice Data and Video Technician</t>
+  </si>
+  <si>
     <t>Software Engineer</t>
   </si>
   <si>
+    <t>unemployed</t>
+  </si>
+  <si>
     <t>Ops Support</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t>R&amp;D Engineer</t>
   </si>
   <si>
+    <t>Sr. IT Recruiter</t>
+  </si>
+  <si>
     <t>assistant store manager</t>
   </si>
   <si>
@@ -88,9 +109,21 @@
     <t>Strategic Account Manager</t>
   </si>
   <si>
+    <t>AV/IT Support Admin</t>
+  </si>
+  <si>
+    <t>Network Engineer II</t>
+  </si>
+  <si>
+    <t>Greensboro/Winston</t>
+  </si>
+  <si>
     <t>Lead Engineering Manager</t>
   </si>
   <si>
+    <t>Level 2 Technical Support</t>
+  </si>
+  <si>
     <t>Farm Assistant</t>
   </si>
   <si>
@@ -103,15 +136,45 @@
     <t>Desktop Support</t>
   </si>
   <si>
+    <t>armory sergeant</t>
+  </si>
+  <si>
+    <t>Tier 3 Lync Team Systems Engineer</t>
+  </si>
+  <si>
+    <t>Chef De Partie</t>
+  </si>
+  <si>
+    <t>Molecular Biologist I</t>
+  </si>
+  <si>
+    <t>Sr. Systems Administrator</t>
+  </si>
+  <si>
+    <t>Network Security Engineer III</t>
+  </si>
+  <si>
     <t>Controls Software Engineer</t>
   </si>
   <si>
+    <t>Owner/Travel Agent</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer ll</t>
+  </si>
+  <si>
     <t>Administrative Assistant</t>
   </si>
   <si>
+    <t>SONET Provisioner</t>
+  </si>
+  <si>
     <t>Vice President of Consulting</t>
   </si>
   <si>
+    <t>Fire Protection Journeyman</t>
+  </si>
+  <si>
     <t>Product Support Supervisor</t>
   </si>
   <si>
@@ -124,6 +187,9 @@
     <t>Executive Chef</t>
   </si>
   <si>
+    <t>C++ Software Engineer</t>
+  </si>
+  <si>
     <t>Clinical Pharmacist</t>
   </si>
   <si>
@@ -142,12 +208,18 @@
     <t>Apartment Manager</t>
   </si>
   <si>
+    <t>Contract Android Engineer</t>
+  </si>
+  <si>
     <t>Shift Manager</t>
   </si>
   <si>
     <t>Parts Manager</t>
   </si>
   <si>
+    <t>Systems Programmer/Web Developer</t>
+  </si>
+  <si>
     <t>Instructional Design Manager</t>
   </si>
   <si>
@@ -178,24 +250,45 @@
     <t>Cooper</t>
   </si>
   <si>
+    <t>UX/UI Design and Front</t>
+  </si>
+  <si>
     <t>Warehouse Worker</t>
   </si>
   <si>
+    <t>Green Beret</t>
+  </si>
+  <si>
     <t>Test Engineer</t>
   </si>
   <si>
     <t>Technical Services Manager</t>
   </si>
   <si>
+    <t>Multiple roles</t>
+  </si>
+  <si>
     <t>Application Developer</t>
   </si>
   <si>
+    <t>Counselor/Coordinator</t>
+  </si>
+  <si>
     <t>Assistant Resident Director</t>
   </si>
   <si>
+    <t>Account Mangament</t>
+  </si>
+  <si>
+    <t>Simulation tech</t>
+  </si>
+  <si>
     <t>owner</t>
   </si>
   <si>
+    <t>20000000</t>
+  </si>
+  <si>
     <t>Patrolman</t>
   </si>
   <si>
@@ -205,6 +298,15 @@
     <t>Motion Picture Director</t>
   </si>
   <si>
+    <t>Attorney / Owner</t>
+  </si>
+  <si>
+    <t>Software Engineer III</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
     <t>Adjuster</t>
   </si>
   <si>
@@ -220,24 +322,54 @@
     <t>Front Desk Assistant</t>
   </si>
   <si>
+    <t>West Valley College</t>
+  </si>
+  <si>
     <t>House Operations Assistant</t>
   </si>
   <si>
+    <t>RDC Lead</t>
+  </si>
+  <si>
     <t>Security Architect</t>
   </si>
   <si>
+    <t>Santa Rosa Junior College</t>
+  </si>
+  <si>
     <t>Adjunct Instructor of History</t>
   </si>
   <si>
+    <t>Applecare At Home Advisor</t>
+  </si>
+  <si>
+    <t>Boise State University</t>
+  </si>
+  <si>
     <t>Data Analyst Processor</t>
   </si>
   <si>
     <t>Systems Project Consultant</t>
   </si>
   <si>
+    <t>Sr. Product Manager</t>
+  </si>
+  <si>
+    <t>Private Process Server</t>
+  </si>
+  <si>
     <t>Social Services Department Head</t>
   </si>
   <si>
+    <t>Distribution Transition Manager</t>
+  </si>
+  <si>
+    <t>CMAAS Associate</t>
+  </si>
+  <si>
+    <t>Cloud Solutions Sales Associate</t>
+  </si>
+  <si>
     <t>Sales Manager</t>
   </si>
   <si>
@@ -247,6 +379,9 @@
     <t>Crew Member</t>
   </si>
   <si>
+    <t>University of the Pacific</t>
+  </si>
+  <si>
     <t>Senior Logistics Associate</t>
   </si>
   <si>
@@ -256,6 +391,9 @@
     <t>Sales Rep</t>
   </si>
   <si>
+    <t>Tax Accountant/Auditor</t>
+  </si>
+  <si>
     <t>Software Architect</t>
   </si>
   <si>
@@ -268,6 +406,9 @@
     <t>principal</t>
   </si>
   <si>
+    <t>Manufacturing Technician III</t>
+  </si>
+  <si>
     <t>IT Systems Administrator</t>
   </si>
   <si>
@@ -298,6 +439,9 @@
     <t>Front</t>
   </si>
   <si>
+    <t>Senior Effects Artist</t>
+  </si>
+  <si>
     <t>Front Desk Receptionist</t>
   </si>
   <si>
@@ -307,12 +451,18 @@
     <t>Document Management Specialist</t>
   </si>
   <si>
+    <t>Senior Slot Tech</t>
+  </si>
+  <si>
     <t>Martial Arts Instructor</t>
   </si>
   <si>
     <t>Database Programmer</t>
   </si>
   <si>
+    <t>Professional Photographer</t>
+  </si>
+  <si>
     <t>Associate Professor</t>
   </si>
   <si>
@@ -328,18 +478,36 @@
     <t>Business Leader</t>
   </si>
   <si>
+    <t>Vocal Director/Composer</t>
+  </si>
+  <si>
+    <t>Tier 1 Agent</t>
+  </si>
+  <si>
+    <t>Your mom</t>
+  </si>
+  <si>
     <t>President &amp; CEO</t>
   </si>
   <si>
+    <t>Programmer, Online services</t>
+  </si>
+  <si>
     <t>Real Estate Broker</t>
   </si>
   <si>
+    <t>President, Lead Investigator</t>
+  </si>
+  <si>
     <t>Plant Engineer</t>
   </si>
   <si>
     <t>IT Technician</t>
   </si>
   <si>
+    <t>Group Leader II</t>
+  </si>
+  <si>
     <t>Senior Manager, Customer Success</t>
   </si>
   <si>
@@ -361,6 +529,15 @@
     <t>Senior VP Global Operations</t>
   </si>
   <si>
+    <t>Elearning Developer</t>
+  </si>
+  <si>
+    <t>Antibody Discovery Specialist</t>
+  </si>
+  <si>
+    <t>Dockworker III</t>
+  </si>
+  <si>
     <t>News Producer</t>
   </si>
   <si>
@@ -376,12 +553,21 @@
     <t>Public Services</t>
   </si>
   <si>
+    <t>Estimator/Project Manager</t>
+  </si>
+  <si>
     <t>IT Consultant</t>
   </si>
   <si>
+    <t>Command Center Supervisor</t>
+  </si>
+  <si>
     <t>Co</t>
   </si>
   <si>
+    <t>Dairy Manager (in Training)</t>
+  </si>
+  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -391,6 +577,9 @@
     <t>Project Estimator</t>
   </si>
   <si>
+    <t>Federal Certification Specialist</t>
+  </si>
+  <si>
     <t>Volunteer</t>
   </si>
   <si>
@@ -406,12 +595,18 @@
     <t>Business Manager</t>
   </si>
   <si>
+    <t>Frac Supervisor/TCP Specialist</t>
+  </si>
+  <si>
     <t>Field Engineer</t>
   </si>
   <si>
     <t>Cook</t>
   </si>
   <si>
+    <t>Class A Driver Waterworks</t>
+  </si>
+  <si>
     <t>Professional Engineer</t>
   </si>
   <si>
@@ -433,18 +628,30 @@
     <t>Complex Environmental Manager</t>
   </si>
   <si>
+    <t>Senior Validation Engineer</t>
+  </si>
+  <si>
     <t>Head of Project Management</t>
   </si>
   <si>
     <t>Network Consultant</t>
   </si>
   <si>
+    <t>Locksmith Technition</t>
+  </si>
+  <si>
     <t>Attorney</t>
   </si>
   <si>
     <t>Emergency Management Coordinator</t>
   </si>
   <si>
+    <t>Emergency Room RN II</t>
+  </si>
+  <si>
+    <t>The Boss</t>
+  </si>
+  <si>
     <t>Assembler</t>
   </si>
   <si>
@@ -478,6 +685,9 @@
     <t>Project Manager</t>
   </si>
   <si>
+    <t>Senior Engineer, Enterprise Projects</t>
+  </si>
+  <si>
     <t>Station Manager</t>
   </si>
   <si>
@@ -487,18 +697,30 @@
     <t>Administrator</t>
   </si>
   <si>
+    <t>Chaminade University of Honolulu</t>
+  </si>
+  <si>
     <t>Soldier</t>
   </si>
   <si>
+    <t>Sr On</t>
+  </si>
+  <si>
     <t>Sales Associate</t>
   </si>
   <si>
+    <t>Motor Transport Operator 3531</t>
+  </si>
+  <si>
     <t>Community Director</t>
   </si>
   <si>
     <t>Internet Services Manager</t>
   </si>
   <si>
+    <t>Sr. Solutions Engineer</t>
+  </si>
+  <si>
     <t>Lead Tech Supervisor</t>
   </si>
   <si>
@@ -508,9 +730,15 @@
     <t>Staff Engineer</t>
   </si>
   <si>
+    <t>Intelligence SME</t>
+  </si>
+  <si>
     <t>Broadcast Engineer</t>
   </si>
   <si>
+    <t>System Test Engineer II</t>
+  </si>
+  <si>
     <t>Senior NOC Engineer</t>
   </si>
   <si>
@@ -532,6 +760,12 @@
     <t>Managing Partner</t>
   </si>
   <si>
+    <t>Realtor &amp; Listing Manager</t>
+  </si>
+  <si>
+    <t>Civil/structural Designer</t>
+  </si>
+  <si>
     <t>Alderman</t>
   </si>
   <si>
@@ -544,9 +778,24 @@
     <t>Substitute Teacher</t>
   </si>
   <si>
+    <t>Process Improvement Consultant II</t>
+  </si>
+  <si>
     <t>Production Team Lead</t>
   </si>
   <si>
+    <t>President / Lead Systems Architect</t>
+  </si>
+  <si>
+    <t>Lead Virtual Delivery Specialist</t>
+  </si>
+  <si>
+    <t>Supreme Elbow Dropper</t>
+  </si>
+  <si>
+    <t>Sr. VP Services Business Unit</t>
+  </si>
+  <si>
     <t>ITS Help Desk</t>
   </si>
   <si>
@@ -586,6 +835,9 @@
     <t>Technical Application Engineer</t>
   </si>
   <si>
+    <t>Entrepreneur</t>
+  </si>
+  <si>
     <t>Civil Engineer</t>
   </si>
   <si>
@@ -607,6 +859,9 @@
     <t>General Manager</t>
   </si>
   <si>
+    <t>VFX Generalist</t>
+  </si>
+  <si>
     <t>Field Radio Operator</t>
   </si>
   <si>
@@ -616,6 +871,12 @@
     <t>Low Voltage System Installer</t>
   </si>
   <si>
+    <t>VP/Investments</t>
+  </si>
+  <si>
+    <t>Sr. Principal Automation Engineer</t>
+  </si>
+  <si>
     <t>Welder Mechanic</t>
   </si>
   <si>
@@ -643,21 +904,39 @@
     <t>Database Administrator</t>
   </si>
   <si>
+    <t>Senior Loan Officer</t>
+  </si>
+  <si>
     <t>Graphic Design Consultant</t>
   </si>
   <si>
+    <t>Tier III Technical Support Analyst</t>
+  </si>
+  <si>
+    <t>Software Quality Assurance Analyst 1</t>
+  </si>
+  <si>
     <t>Technician</t>
   </si>
   <si>
     <t>Teacher</t>
   </si>
   <si>
+    <t>Advanced Repair Agent</t>
+  </si>
+  <si>
     <t>Pastor of Technology</t>
   </si>
   <si>
+    <t>Cpl</t>
+  </si>
+  <si>
     <t>Adjunct Instructor</t>
   </si>
   <si>
+    <t>IT Data &amp; Workstation Analyst</t>
+  </si>
+  <si>
     <t>Product Owner</t>
   </si>
   <si>
@@ -676,15 +955,33 @@
     <t>Accountant</t>
   </si>
   <si>
+    <t>FedEx Delivery Driver</t>
+  </si>
+  <si>
+    <t>Garden of Hope Propagator</t>
+  </si>
+  <si>
     <t>Lead Service Technician</t>
   </si>
   <si>
+    <t>Nuclear Security Officer</t>
+  </si>
+  <si>
+    <t>Paul Oberle</t>
+  </si>
+  <si>
+    <t>Noblesville High School</t>
+  </si>
+  <si>
     <t>Shuttle Driver</t>
   </si>
   <si>
     <t>Property Analyst</t>
   </si>
   <si>
+    <t>Branch Teen Librarian</t>
+  </si>
+  <si>
     <t>Disabled</t>
   </si>
   <si>
@@ -703,12 +1000,21 @@
     <t>Footwear</t>
   </si>
   <si>
+    <t>Sr. Web Analyst</t>
+  </si>
+  <si>
     <t>Division Manager</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
+    <t>Sitting Duck</t>
+  </si>
+  <si>
+    <t>Senior SIGINT Specialist</t>
+  </si>
+  <si>
     <t>Groundskeeper</t>
   </si>
   <si>
@@ -721,12 +1027,18 @@
     <t>Quality Control</t>
   </si>
   <si>
+    <t>Genius</t>
+  </si>
+  <si>
     <t>Leasing Professional</t>
   </si>
   <si>
     <t>IT Manager</t>
   </si>
   <si>
+    <t>Executive &amp; Curatorial Assistant</t>
+  </si>
+  <si>
     <t>Senior Application Administrator</t>
   </si>
   <si>
@@ -736,6 +1048,9 @@
     <t>pres</t>
   </si>
   <si>
+    <t>Premier Service Agent</t>
+  </si>
+  <si>
     <t>Inspector</t>
   </si>
   <si>
@@ -751,9 +1066,15 @@
     <t>Helpdesk Technician</t>
   </si>
   <si>
+    <t>President &amp; Nurseryman</t>
+  </si>
+  <si>
     <t>Full Stack Engineer</t>
   </si>
   <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
     <t>Senior Technology Consultant</t>
   </si>
   <si>
@@ -766,18 +1087,33 @@
     <t>Associate</t>
   </si>
   <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>Bookseller</t>
+  </si>
+  <si>
     <t>Graduate Teaching Assistant</t>
   </si>
   <si>
     <t>Industrial Maintenance Technician</t>
   </si>
   <si>
+    <t>Indirect Relationship Banker</t>
+  </si>
+  <si>
+    <t>villalta</t>
+  </si>
+  <si>
     <t>Professional Expert</t>
   </si>
   <si>
     <t>Assistant Attorney General</t>
   </si>
   <si>
+    <t>Volcano Engineer</t>
+  </si>
+  <si>
     <t>Oral and Maxillofacial Surgeon</t>
   </si>
   <si>
@@ -796,6 +1132,9 @@
     <t>Retail Associate</t>
   </si>
   <si>
+    <t>Freelance Dev</t>
+  </si>
+  <si>
     <t>Service Writer</t>
   </si>
   <si>
@@ -829,6 +1168,15 @@
     <t>Geneticist</t>
   </si>
   <si>
+    <t>Bituminous field technician</t>
+  </si>
+  <si>
+    <t>PSE Mail Processing Clerk</t>
+  </si>
+  <si>
+    <t>VoIP Services Supervisor</t>
+  </si>
+  <si>
     <t>Information Security</t>
   </si>
   <si>
@@ -838,12 +1186,21 @@
     <t>Principal Developer</t>
   </si>
   <si>
+    <t>Talent Manager, Founder</t>
+  </si>
+  <si>
+    <t>Solo Entertainer</t>
+  </si>
+  <si>
     <t>Production Manager</t>
   </si>
   <si>
     <t>team lead</t>
   </si>
   <si>
+    <t>Bookkeeping &amp; Tax Service</t>
+  </si>
+  <si>
     <t>Engineering Manager</t>
   </si>
   <si>
@@ -856,12 +1213,21 @@
     <t>Senior National Account Manager</t>
   </si>
   <si>
+    <t>Agile Coach</t>
+  </si>
+  <si>
     <t>Graphic Designer</t>
   </si>
   <si>
     <t>Audit Associate</t>
   </si>
   <si>
+    <t>Principal EHS Specialist</t>
+  </si>
+  <si>
+    <t>Freelance IT Consultant</t>
+  </si>
+  <si>
     <t>IT Coordinator</t>
   </si>
   <si>
@@ -874,6 +1240,12 @@
     <t>Product Assistant</t>
   </si>
   <si>
+    <t>Cybersecurity Engineer</t>
+  </si>
+  <si>
+    <t>State of Tennessee AMLS Coordinator</t>
+  </si>
+  <si>
     <t>COLLECTOR</t>
   </si>
   <si>
@@ -901,6 +1273,12 @@
     <t>Student Activities Director</t>
   </si>
   <si>
+    <t>92Y Supply Specialist</t>
+  </si>
+  <si>
+    <t>PHD Graduate Student</t>
+  </si>
+  <si>
     <t>Senior Global Product Manager</t>
   </si>
   <si>
@@ -910,12 +1288,27 @@
     <t>Senior Parts Expeditor</t>
   </si>
   <si>
+    <t>Playtest Coordinator</t>
+  </si>
+  <si>
     <t>Senior Business Analyst</t>
   </si>
   <si>
     <t>IT Program Manager</t>
   </si>
   <si>
+    <t>Financial Suppprt Caseworker</t>
+  </si>
+  <si>
+    <t>Wright)</t>
+  </si>
+  <si>
+    <t>Sr Quality Engineer</t>
+  </si>
+  <si>
+    <t>Civil/Structural EI</t>
+  </si>
+  <si>
     <t>Director of Sales</t>
   </si>
   <si>
@@ -925,6 +1318,9 @@
     <t>Vice President, Principal</t>
   </si>
   <si>
+    <t>RPG Developer</t>
+  </si>
+  <si>
     <t>Creative Production Manager</t>
   </si>
   <si>
@@ -934,6 +1330,9 @@
     <t>Executive Assistant</t>
   </si>
   <si>
+    <t>SAP Delivery Manager</t>
+  </si>
+  <si>
     <t>3D Artist</t>
   </si>
   <si>
@@ -946,6 +1345,9 @@
     <t>Team Leader</t>
   </si>
   <si>
+    <t>restired</t>
+  </si>
+  <si>
     <t>Sales Representative</t>
   </si>
   <si>
@@ -967,24 +1369,42 @@
     <t>Massage Therapist</t>
   </si>
   <si>
+    <t>Comfort Consultant</t>
+  </si>
+  <si>
     <t>Transportation Specialist</t>
   </si>
   <si>
     <t>Activist</t>
   </si>
   <si>
+    <t>ownwer</t>
+  </si>
+  <si>
+    <t>Sr Programmer</t>
+  </si>
+  <si>
+    <t>Blockchain Solutions Engineer</t>
+  </si>
+  <si>
     <t>Chief Executives</t>
   </si>
   <si>
     <t>First-Line Supervisors of Office and Administrative Support Workers</t>
   </si>
   <si>
+    <t>Aerospace Engineers</t>
+  </si>
+  <si>
     <t>Software Developers, Systems Software</t>
   </si>
   <si>
     <t>Allergists and Immunologists</t>
   </si>
   <si>
+    <t>Library Assistants, Clerical</t>
+  </si>
+  <si>
     <t>Bus Drivers, Transit and Intercity</t>
   </si>
   <si>
@@ -997,6 +1417,9 @@
     <t>Automotive Engineers</t>
   </si>
   <si>
+    <t>Statistical Assistants</t>
+  </si>
+  <si>
     <t>Software Developers, Applications</t>
   </si>
   <si>
@@ -1021,6 +1444,12 @@
     <t>First-Line Supervisors of Non-Retail Sales Workers</t>
   </si>
   <si>
+    <t>Office Clerks, General</t>
+  </si>
+  <si>
+    <t>Computer Hardware Engineers</t>
+  </si>
+  <si>
     <t>Computer and Information Systems Managers</t>
   </si>
   <si>
@@ -1036,15 +1465,30 @@
     <t>Computer User Support Specialists</t>
   </si>
   <si>
+    <t>Bailiffs</t>
+  </si>
+  <si>
+    <t>Bioinformatics Scientists</t>
+  </si>
+  <si>
+    <t>Computer Network Architects</t>
+  </si>
+  <si>
     <t>Computer Operators</t>
   </si>
   <si>
+    <t>Computer Network Support Specialists</t>
+  </si>
+  <si>
     <t>Business Operations Specialists, All Other</t>
   </si>
   <si>
     <t>Industrial-Organizational Psychologists</t>
   </si>
   <si>
+    <t>Civil Engineering Technicians</t>
+  </si>
+  <si>
     <t>Gaming Dealers</t>
   </si>
   <si>
@@ -1060,12 +1504,18 @@
     <t>Property, Real Estate, and Community Association Managers</t>
   </si>
   <si>
+    <t>Cost Estimators</t>
+  </si>
+  <si>
     <t>Managers, All Other</t>
   </si>
   <si>
     <t>First-Line Supervisors of Retail Sales Workers</t>
   </si>
   <si>
+    <t>Aircraft Mechanics and Service Technicians</t>
+  </si>
+  <si>
     <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
   </si>
   <si>
@@ -1087,12 +1537,24 @@
     <t>Construction Carpenters</t>
   </si>
   <si>
+    <t>Amusement and Recreation Attendants</t>
+  </si>
+  <si>
     <t>Stock Clerks- Stockroom, Warehouse, or Storage Yard</t>
   </si>
   <si>
+    <t>Architects, Except Landscape and Naval</t>
+  </si>
+  <si>
+    <t>Coil Winders, Tapers, and Finishers</t>
+  </si>
+  <si>
     <t>First-Line Supervisors of Personal Service Workers</t>
   </si>
   <si>
+    <t>Agricultural Technicians</t>
+  </si>
+  <si>
     <t>Transit and Railroad Police</t>
   </si>
   <si>
@@ -1111,10 +1573,7 @@
     <t>Physician Assistants</t>
   </si>
   <si>
-    <t>Computer Network Support Specialists</t>
-  </si>
-  <si>
-    <t>Amusement and Recreation Attendants</t>
+    <t>Aircraft Cargo Handling Supervisors</t>
   </si>
   <si>
     <t>Information Security Analysts</t>
@@ -1123,15 +1582,30 @@
     <t>Art, Drama, and Music Teachers, Postsecondary</t>
   </si>
   <si>
+    <t>Customer Service Representatives</t>
+  </si>
+  <si>
+    <t>Archivists</t>
+  </si>
+  <si>
     <t>Medical Records and Health Information Technicians</t>
   </si>
   <si>
     <t>Accountants</t>
   </si>
   <si>
+    <t>Actuaries</t>
+  </si>
+  <si>
+    <t>Court Clerks</t>
+  </si>
+  <si>
     <t>Art Directors</t>
   </si>
   <si>
+    <t>Acute Care Nurses</t>
+  </si>
+  <si>
     <t>Sales Managers</t>
   </si>
   <si>
@@ -1156,6 +1630,9 @@
     <t>Education Administrators, Preschool and Childcare Center/Program</t>
   </si>
   <si>
+    <t>Aircraft Structure, Surfaces, Rigging, and Systems Assemblers</t>
+  </si>
+  <si>
     <t>Network and Computer Systems Administrators</t>
   </si>
   <si>
@@ -1177,6 +1654,9 @@
     <t>Fire-Prevention and Protection Engineers</t>
   </si>
   <si>
+    <t>Climate Change Analysts</t>
+  </si>
+  <si>
     <t>Physicists</t>
   </si>
   <si>
@@ -1186,18 +1666,30 @@
     <t>Self-Enrichment Education Teachers</t>
   </si>
   <si>
+    <t>Adapted Physical Education Specialists</t>
+  </si>
+  <si>
     <t>Food Scientists and Technologists</t>
   </si>
   <si>
     <t>Industrial Production Managers</t>
   </si>
   <si>
+    <t>Laborers and Freight, Stock, and Material Movers, Hand</t>
+  </si>
+  <si>
     <t>Real Estate Brokers</t>
   </si>
   <si>
+    <t>Biofuels Production Managers</t>
+  </si>
+  <si>
     <t>Chemical Engineers</t>
   </si>
   <si>
+    <t>Electrical and Electronic Equipment Assemblers</t>
+  </si>
+  <si>
     <t>Sales Engineers</t>
   </si>
   <si>
@@ -1219,13 +1711,16 @@
     <t>Photographers</t>
   </si>
   <si>
+    <t>Air Traffic Controllers</t>
+  </si>
+  <si>
     <t>Orthoptists</t>
   </si>
   <si>
     <t>Business Teachers, Postsecondary</t>
   </si>
   <si>
-    <t>Cost Estimators</t>
+    <t>Arbitrators, Mediators, and Conciliators</t>
   </si>
   <si>
     <t>Medical and Health Services Managers</t>
@@ -1237,13 +1732,10 @@
     <t>Storage and Distribution Managers</t>
   </si>
   <si>
-    <t>Agricultural Technicians</t>
-  </si>
-  <si>
     <t>General and Operations Managers</t>
   </si>
   <si>
-    <t>Aerospace Engineers</t>
+    <t>Heavy and Tractor-Trailer Truck Drivers</t>
   </si>
   <si>
     <t>Agricultural Engineers</t>
@@ -1255,10 +1747,7 @@
     <t>Foundry Mold and Coremakers</t>
   </si>
   <si>
-    <t>Arbitrators, Mediators, and Conciliators</t>
-  </si>
-  <si>
-    <t>Computer Network Architects</t>
+    <t>Helpers--Installation, Maintenance, and Repair Workers</t>
   </si>
   <si>
     <t>Lawyers</t>
@@ -1267,6 +1756,12 @@
     <t>Emergency Management Directors</t>
   </si>
   <si>
+    <t>Registered Nurses</t>
+  </si>
+  <si>
+    <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
+  </si>
+  <si>
     <t>Boilermakers</t>
   </si>
   <si>
@@ -1288,9 +1783,15 @@
     <t>Military Enlisted Tactical Operations and Air/Weapons Specialists and Crew Members, All Other</t>
   </si>
   <si>
+    <t>Billing, Cost, and Rate Clerks</t>
+  </si>
+  <si>
     <t>Online Merchants</t>
   </si>
   <si>
+    <t>Cleaning, Washing, and Metal Pickling Equipment Operators and Tenders</t>
+  </si>
+  <si>
     <t>Nuclear Medicine Technologists</t>
   </si>
   <si>
@@ -1318,9 +1819,6 @@
     <t>Legislators</t>
   </si>
   <si>
-    <t>Architects, Except Landscape and Naval</t>
-  </si>
-  <si>
     <t>Extruding, Forming, Pressing, and Compacting Machine Setters, Operators, and Tenders</t>
   </si>
   <si>
@@ -1330,15 +1828,15 @@
     <t>First-Line Supervisors of Mechanics, Installers, and Repairers</t>
   </si>
   <si>
+    <t>Cargo and Freight Agents</t>
+  </si>
+  <si>
     <t>Industrial Machinery Mechanics</t>
   </si>
   <si>
     <t>Childcare Workers</t>
   </si>
   <si>
-    <t>Bailiffs</t>
-  </si>
-  <si>
     <t>Mechanical Drafters</t>
   </si>
   <si>
@@ -1375,6 +1873,9 @@
     <t>Electronic Home Entertainment Equipment Installers and Repairers</t>
   </si>
   <si>
+    <t>Electronics Engineers, Except Computer</t>
+  </si>
+  <si>
     <t>Physicians and Surgeons, All Other</t>
   </si>
   <si>
@@ -1384,22 +1885,22 @@
     <t>Chemical Technicians</t>
   </si>
   <si>
-    <t>Adapted Physical Education Specialists</t>
-  </si>
-  <si>
     <t>Helpers--Electricians</t>
   </si>
   <si>
     <t>Database Administrators</t>
   </si>
   <si>
+    <t>Counter and Rental Clerks</t>
+  </si>
+  <si>
     <t>Clergy</t>
   </si>
   <si>
     <t>Auditors</t>
   </si>
   <si>
-    <t>Cargo and Freight Agents</t>
+    <t>Career/Technical Education Teachers, Secondary School</t>
   </si>
   <si>
     <t>Special Education Teachers, Kindergarten and Elementary School</t>
@@ -1441,9 +1942,6 @@
     <t>Engineers, All Other</t>
   </si>
   <si>
-    <t>Actuaries</t>
-  </si>
-  <si>
     <t>Graduate Teaching Assistants</t>
   </si>
   <si>
@@ -1459,9 +1957,6 @@
     <t>Retail Salespersons</t>
   </si>
   <si>
-    <t>Counter and Rental Clerks</t>
-  </si>
-  <si>
     <t>Compensation, Benefits, and Job Analysis Specialists</t>
   </si>
   <si>
@@ -1474,7 +1969,16 @@
     <t>Geneticists</t>
   </si>
   <si>
-    <t>Bioinformatics Scientists</t>
+    <t>Agricultural Inspectors</t>
+  </si>
+  <si>
+    <t>Data Entry Keyers</t>
+  </si>
+  <si>
+    <t>Agents and Business Managers of Artists, Performers, and Athletes</t>
+  </si>
+  <si>
+    <t>Actors</t>
   </si>
   <si>
     <t>Clinical Psychologists</t>
@@ -1493,6 +1997,12 @@
   </si>
   <si>
     <t>Information Technology Project Managers</t>
+  </si>
+  <si>
+    <t>Child, Family, and School Social Workers</t>
+  </si>
+  <si>
+    <t>Electrical and Electronics Repairers, Commercial and Industrial Equipment</t>
   </si>
   <si>
     <t>Loan Officers</t>
@@ -1871,7 +2381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,10 +2403,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1904,10 +2414,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1915,32 +2425,32 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1948,43 +2458,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1992,10 +2502,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2003,54 +2513,54 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2058,87 +2568,87 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2146,43 +2656,43 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2190,76 +2700,76 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2267,10 +2777,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2278,10 +2788,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2289,21 +2799,21 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2311,10 +2821,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2322,54 +2832,54 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2377,76 +2887,76 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2454,76 +2964,76 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>335</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>322</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>360</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2531,43 +3041,43 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2575,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>365</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2586,65 +3096,65 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>368</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2652,21 +3162,21 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>322</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2674,43 +3184,43 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>372</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>374</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2718,21 +3228,21 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2740,131 +3250,131 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>337</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>383</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2872,98 +3382,98 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>387</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>390</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2971,32 +3481,32 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>339</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3004,98 +3514,98 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>521</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>324</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>393</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>327</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3103,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3114,32 +3624,32 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3147,98 +3657,98 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>400</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>341</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>327</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3246,21 +3756,21 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>402</v>
+        <v>537</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3268,87 +3778,87 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>541</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3356,21 +3866,21 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>410</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>411</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3378,10 +3888,10 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3389,10 +3899,10 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>365</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3400,76 +3910,76 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>413</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>374</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>414</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3477,87 +3987,87 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>339</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3565,21 +4075,21 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>418</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3587,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3598,21 +4108,21 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3620,32 +4130,32 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>385</v>
+        <v>555</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>421</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3653,98 +4163,98 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>330</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>423</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>365</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>426</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>427</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3752,76 +4262,76 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>331</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3829,76 +4339,76 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>411</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>432</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>365</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>434</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3906,43 +4416,43 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>437</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3950,10 +4460,10 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>339</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3961,21 +4471,21 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>438</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>331</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3983,54 +4493,54 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>322</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>439</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4038,43 +4548,43 @@
         <v>5</v>
       </c>
       <c r="B197" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>319</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>442</v>
+        <v>574</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>443</v>
+        <v>575</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4082,32 +4592,32 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>335</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4115,10 +4625,10 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>365</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4126,10 +4636,10 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C205" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4137,73 +4647,76 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>327</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>3</v>
       </c>
+      <c r="B207" t="s">
+        <v>71</v>
+      </c>
       <c r="C207" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>445</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>447</v>
+        <v>577</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>448</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>366</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4211,10 +4724,10 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4222,32 +4735,32 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>409</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C215" t="s">
-        <v>398</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C216" t="s">
-        <v>450</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4255,87 +4768,87 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C217" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C218" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C219" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C220" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C222" t="s">
-        <v>398</v>
+        <v>583</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="C223" t="s">
-        <v>327</v>
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C224" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4343,54 +4856,54 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C225" t="s">
-        <v>365</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C226" t="s">
-        <v>454</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C227" t="s">
-        <v>455</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>456</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>457</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4398,32 +4911,32 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>436</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C232" t="s">
-        <v>324</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4431,21 +4944,21 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>339</v>
+        <v>589</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>402</v>
+        <v>590</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4453,21 +4966,21 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>325</v>
+        <v>495</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4475,10 +4988,10 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C237" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4486,10 +4999,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>402</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4497,43 +5010,43 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C239" t="s">
-        <v>350</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B240" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="C240" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C241" t="s">
-        <v>460</v>
+        <v>593</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="C242" t="s">
-        <v>401</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4541,43 +5054,43 @@
         <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C243" t="s">
-        <v>335</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C244" t="s">
-        <v>362</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C245" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
-        <v>397</v>
+        <v>596</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4585,54 +5098,54 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C247" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C248" t="s">
-        <v>443</v>
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="C249" t="s">
-        <v>401</v>
+        <v>597</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="C250" t="s">
-        <v>370</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C251" t="s">
-        <v>462</v>
+        <v>598</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4640,10 +5153,10 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C252" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4651,21 +5164,21 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C253" t="s">
-        <v>339</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C254" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4673,10 +5186,10 @@
         <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C255" t="s">
-        <v>351</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4684,10 +5197,10 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4695,10 +5208,10 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C257" t="s">
-        <v>322</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4706,131 +5219,131 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C258" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C259" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>467</v>
+        <v>601</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C262" t="s">
-        <v>468</v>
+        <v>602</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="C263" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C264" t="s">
-        <v>469</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C265" t="s">
-        <v>470</v>
+        <v>603</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C266" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="C267" t="s">
-        <v>319</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C269" t="s">
-        <v>471</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4838,153 +5351,153 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C270" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C271" t="s">
-        <v>473</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C272" t="s">
-        <v>343</v>
+        <v>472</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="C273" t="s">
-        <v>366</v>
+        <v>461</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="C274" t="s">
-        <v>321</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C275" t="s">
-        <v>339</v>
+        <v>606</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C276" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C277" t="s">
-        <v>434</v>
+        <v>607</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C278" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C279" t="s">
-        <v>335</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C280" t="s">
-        <v>324</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B281" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="C281" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C282" t="s">
-        <v>476</v>
+        <v>610</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C283" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4992,76 +5505,73 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C284" t="s">
-        <v>355</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C285" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C286" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="C287" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="C288" t="s">
-        <v>320</v>
+        <v>468</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>5</v>
-      </c>
-      <c r="B289" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C290" t="s">
-        <v>331</v>
+        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5069,76 +5579,76 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C291" t="s">
-        <v>479</v>
+        <v>612</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C292" t="s">
-        <v>480</v>
+        <v>613</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="C293" t="s">
-        <v>327</v>
+        <v>614</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C294" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C295" t="s">
-        <v>482</v>
+        <v>615</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C296" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C297" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5146,76 +5656,76 @@
         <v>5</v>
       </c>
       <c r="B298" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C298" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="C299" t="s">
-        <v>319</v>
+        <v>616</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C300" t="s">
-        <v>434</v>
+        <v>617</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C301" t="s">
-        <v>445</v>
+        <v>618</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C302" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C303" t="s">
-        <v>319</v>
+        <v>619</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C304" t="s">
-        <v>484</v>
+        <v>582</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5223,54 +5733,54 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C305" t="s">
-        <v>485</v>
+        <v>620</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="C306" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C307" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="C308" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C309" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5278,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C310" t="s">
         <v>487</v>
@@ -5286,68 +5796,68 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="C311" t="s">
-        <v>402</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="C312" t="s">
-        <v>327</v>
+        <v>622</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C313" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C314" t="s">
-        <v>370</v>
+        <v>623</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C315" t="s">
-        <v>408</v>
+        <v>624</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C316" t="s">
-        <v>465</v>
+        <v>602</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5355,32 +5865,32 @@
         <v>5</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="C317" t="s">
-        <v>355</v>
+        <v>500</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="C318" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C319" t="s">
-        <v>382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5388,186 +5898,186 @@
         <v>5</v>
       </c>
       <c r="B320" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="C320" t="s">
-        <v>337</v>
+        <v>478</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C321" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="C322" t="s">
-        <v>321</v>
+        <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="C323" t="s">
-        <v>335</v>
+        <v>468</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C324" t="s">
-        <v>339</v>
+        <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="C325" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="C326" t="s">
-        <v>355</v>
+        <v>626</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="C327" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="C328" t="s">
-        <v>412</v>
+        <v>567</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B329" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C329" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="C330" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="C331" t="s">
-        <v>397</v>
+        <v>504</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C332" t="s">
-        <v>442</v>
+        <v>627</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B333" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="C333" t="s">
-        <v>335</v>
+        <v>566</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="C334" t="s">
-        <v>335</v>
+        <v>478</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C335" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C336" t="s">
-        <v>322</v>
+        <v>525</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5575,87 +6085,87 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C337" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C338" t="s">
-        <v>490</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C339" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B340" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C340" t="s">
-        <v>395</v>
+        <v>604</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C341" t="s">
-        <v>397</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C342" t="s">
-        <v>380</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C343" t="s">
-        <v>491</v>
+        <v>628</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C344" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5663,10 +6173,10 @@
         <v>3</v>
       </c>
       <c r="B345" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="C345" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5674,10 +6184,10 @@
         <v>5</v>
       </c>
       <c r="B346" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C346" t="s">
-        <v>334</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5685,21 +6195,21 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C347" t="s">
-        <v>357</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C348" t="s">
-        <v>397</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5707,54 +6217,54 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C349" t="s">
-        <v>371</v>
+        <v>629</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C350" t="s">
-        <v>493</v>
+        <v>630</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B351" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C351" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C352" t="s">
-        <v>495</v>
+        <v>631</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C353" t="s">
-        <v>319</v>
+        <v>501</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5762,43 +6272,43 @@
         <v>4</v>
       </c>
       <c r="B354" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C354" t="s">
-        <v>397</v>
+        <v>632</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B355" t="s">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>348</v>
+        <v>461</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="C356" t="s">
-        <v>322</v>
+        <v>501</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C357" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5806,21 +6316,21 @@
         <v>4</v>
       </c>
       <c r="B358" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C358" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B359" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C359" t="s">
-        <v>496</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5828,43 +6338,43 @@
         <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C360" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C361" t="s">
-        <v>410</v>
+        <v>633</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C362" t="s">
-        <v>460</v>
+        <v>634</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="C363" t="s">
-        <v>355</v>
+        <v>635</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5872,43 +6382,1550 @@
         <v>6</v>
       </c>
       <c r="B364" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="C364" t="s">
-        <v>498</v>
+        <v>602</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B365" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="C365" t="s">
-        <v>456</v>
+        <v>636</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C366" t="s">
-        <v>421</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C367" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" t="s">
+        <v>339</v>
+      </c>
+      <c r="C368" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
+        <v>71</v>
+      </c>
+      <c r="C369" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" t="s">
+        <v>340</v>
+      </c>
+      <c r="C370" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>341</v>
+      </c>
+      <c r="C371" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" t="s">
+        <v>342</v>
+      </c>
+      <c r="C372" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>343</v>
+      </c>
+      <c r="C373" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>344</v>
+      </c>
+      <c r="C374" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>345</v>
+      </c>
+      <c r="C375" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" t="s">
+        <v>346</v>
+      </c>
+      <c r="C376" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" t="s">
+        <v>347</v>
+      </c>
+      <c r="C377" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" t="s">
+        <v>348</v>
+      </c>
+      <c r="C378" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>349</v>
+      </c>
+      <c r="C379" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" t="s">
+        <v>350</v>
+      </c>
+      <c r="C380" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" t="s">
+        <v>351</v>
+      </c>
+      <c r="C381" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382" t="s">
+        <v>352</v>
+      </c>
+      <c r="C382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>353</v>
+      </c>
+      <c r="C383" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>140</v>
+      </c>
+      <c r="C384" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>354</v>
+      </c>
+      <c r="C385" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>355</v>
+      </c>
+      <c r="C386" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>356</v>
+      </c>
+      <c r="C387" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>357</v>
+      </c>
+      <c r="C388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389" t="s">
+        <v>358</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>8</v>
+      </c>
+      <c r="B390" t="s">
+        <v>359</v>
+      </c>
+      <c r="C390" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" t="s">
+        <v>360</v>
+      </c>
+      <c r="C391" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" t="s">
+        <v>361</v>
+      </c>
+      <c r="C392" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" t="s">
+        <v>362</v>
+      </c>
+      <c r="C393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>363</v>
+      </c>
+      <c r="C394" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" t="s">
+        <v>364</v>
+      </c>
+      <c r="C395" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" t="s">
+        <v>20</v>
+      </c>
+      <c r="C396" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" t="s">
+        <v>365</v>
+      </c>
+      <c r="C397" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>8</v>
+      </c>
+      <c r="B398" t="s">
+        <v>366</v>
+      </c>
+      <c r="C398" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" t="s">
+        <v>367</v>
+      </c>
+      <c r="C399" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" t="s">
+        <v>368</v>
+      </c>
+      <c r="C400" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>369</v>
+      </c>
+      <c r="C401" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>8</v>
+      </c>
+      <c r="B402" t="s">
+        <v>370</v>
+      </c>
+      <c r="C402" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" t="s">
+        <v>371</v>
+      </c>
+      <c r="C403" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" t="s">
+        <v>20</v>
+      </c>
+      <c r="C404" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" t="s">
+        <v>372</v>
+      </c>
+      <c r="C405" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" t="s">
+        <v>373</v>
+      </c>
+      <c r="C406" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>374</v>
+      </c>
+      <c r="C407" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>375</v>
+      </c>
+      <c r="C408" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>376</v>
+      </c>
+      <c r="C409" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" t="s">
+        <v>377</v>
+      </c>
+      <c r="C410" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" t="s">
+        <v>70</v>
+      </c>
+      <c r="C411" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>378</v>
+      </c>
+      <c r="C412" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" t="s">
+        <v>379</v>
+      </c>
+      <c r="C413" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>380</v>
+      </c>
+      <c r="C414" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>381</v>
+      </c>
+      <c r="C415" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>382</v>
+      </c>
+      <c r="C416" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>8</v>
+      </c>
+      <c r="B417" t="s">
+        <v>383</v>
+      </c>
+      <c r="C417" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>384</v>
+      </c>
+      <c r="C418" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>385</v>
+      </c>
+      <c r="C419" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" t="s">
+        <v>386</v>
+      </c>
+      <c r="C420" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>387</v>
+      </c>
+      <c r="C421" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>388</v>
+      </c>
+      <c r="C422" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>389</v>
+      </c>
+      <c r="C423" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>390</v>
+      </c>
+      <c r="C424" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" t="s">
+        <v>391</v>
+      </c>
+      <c r="C425" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" t="s">
+        <v>392</v>
+      </c>
+      <c r="C426" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>393</v>
+      </c>
+      <c r="C427" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" t="s">
+        <v>305</v>
+      </c>
+      <c r="C428" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" t="s">
+        <v>394</v>
+      </c>
+      <c r="C429" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" t="s">
+        <v>167</v>
+      </c>
+      <c r="C430" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" t="s">
+        <v>395</v>
+      </c>
+      <c r="C431" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>396</v>
+      </c>
+      <c r="C432" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" t="s">
+        <v>397</v>
+      </c>
+      <c r="C433" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>398</v>
+      </c>
+      <c r="C434" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" t="s">
+        <v>76</v>
+      </c>
+      <c r="C435" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s">
+        <v>399</v>
+      </c>
+      <c r="C436" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" t="s">
+        <v>118</v>
+      </c>
+      <c r="C437" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>8</v>
+      </c>
+      <c r="B438" t="s">
+        <v>400</v>
+      </c>
+      <c r="C438" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" t="s">
+        <v>37</v>
+      </c>
+      <c r="C439" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" t="s">
+        <v>401</v>
+      </c>
+      <c r="C440" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" t="s">
+        <v>402</v>
+      </c>
+      <c r="C442" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" t="s">
+        <v>403</v>
+      </c>
+      <c r="C443" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>404</v>
+      </c>
+      <c r="C444" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>405</v>
+      </c>
+      <c r="C445" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" t="s">
+        <v>406</v>
+      </c>
+      <c r="C446" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" t="s">
+        <v>76</v>
+      </c>
+      <c r="C447" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448" t="s">
+        <v>180</v>
+      </c>
+      <c r="C448" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" t="s">
+        <v>202</v>
+      </c>
+      <c r="C449" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>407</v>
+      </c>
+      <c r="C450" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>408</v>
+      </c>
+      <c r="C451" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" t="s">
+        <v>334</v>
+      </c>
+      <c r="C452" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" t="s">
+        <v>243</v>
+      </c>
+      <c r="C453" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" t="s">
+        <v>409</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" t="s">
+        <v>410</v>
+      </c>
+      <c r="C455" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>411</v>
+      </c>
+      <c r="C456" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" t="s">
+        <v>412</v>
+      </c>
+      <c r="C457" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>6</v>
+      </c>
+      <c r="B458" t="s">
+        <v>413</v>
+      </c>
+      <c r="C458" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>414</v>
+      </c>
+      <c r="C459" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>6</v>
+      </c>
+      <c r="B460" t="s">
+        <v>415</v>
+      </c>
+      <c r="C460" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461" t="s">
+        <v>416</v>
+      </c>
+      <c r="C461" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462" t="s">
+        <v>417</v>
+      </c>
+      <c r="C462" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>6</v>
+      </c>
+      <c r="B463" t="s">
+        <v>418</v>
+      </c>
+      <c r="C463" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>419</v>
+      </c>
+      <c r="C464" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>420</v>
+      </c>
+      <c r="C465" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>421</v>
+      </c>
+      <c r="C466" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>3</v>
+      </c>
+      <c r="B467" t="s">
+        <v>422</v>
+      </c>
+      <c r="C467" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>423</v>
+      </c>
+      <c r="C468" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>424</v>
+      </c>
+      <c r="C469" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>425</v>
+      </c>
+      <c r="C470" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>3</v>
+      </c>
+      <c r="B471" t="s">
+        <v>426</v>
+      </c>
+      <c r="C471" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>427</v>
+      </c>
+      <c r="C472" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" t="s">
+        <v>428</v>
+      </c>
+      <c r="C473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>429</v>
+      </c>
+      <c r="C474" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>430</v>
+      </c>
+      <c r="C475" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>6</v>
+      </c>
+      <c r="B476" t="s">
+        <v>431</v>
+      </c>
+      <c r="C476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>432</v>
+      </c>
+      <c r="C477" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>433</v>
+      </c>
+      <c r="C478" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>434</v>
+      </c>
+      <c r="C479" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>435</v>
+      </c>
+      <c r="C480" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>6</v>
+      </c>
+      <c r="B481" t="s">
+        <v>436</v>
+      </c>
+      <c r="C481" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482" t="s">
+        <v>437</v>
+      </c>
+      <c r="C482" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>438</v>
+      </c>
+      <c r="C483" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>3</v>
+      </c>
+      <c r="B484" t="s">
+        <v>439</v>
+      </c>
+      <c r="C484" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>440</v>
+      </c>
+      <c r="C485" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>441</v>
+      </c>
+      <c r="C486" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>6</v>
+      </c>
+      <c r="B487" t="s">
+        <v>442</v>
+      </c>
+      <c r="C487" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" t="s">
+        <v>443</v>
+      </c>
+      <c r="C488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>6</v>
+      </c>
+      <c r="B490" t="s">
+        <v>444</v>
+      </c>
+      <c r="C490" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>445</v>
+      </c>
+      <c r="C491" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>446</v>
+      </c>
+      <c r="C492" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>6</v>
+      </c>
+      <c r="B493" t="s">
+        <v>447</v>
+      </c>
+      <c r="C493" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>448</v>
+      </c>
+      <c r="C494" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>449</v>
+      </c>
+      <c r="C495" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>6</v>
+      </c>
+      <c r="B496" t="s">
+        <v>76</v>
+      </c>
+      <c r="C496" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>8</v>
+      </c>
+      <c r="B497" t="s">
+        <v>450</v>
+      </c>
+      <c r="C497" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" t="s">
+        <v>451</v>
+      </c>
+      <c r="C498" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>293</v>
+      </c>
+      <c r="C499" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>6</v>
+      </c>
+      <c r="B500" t="s">
+        <v>452</v>
+      </c>
+      <c r="C500" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>6</v>
+      </c>
+      <c r="B501" t="s">
+        <v>453</v>
+      </c>
+      <c r="C501" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" t="s">
+        <v>454</v>
+      </c>
+      <c r="C502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" t="s">
+        <v>455</v>
+      </c>
+      <c r="C503" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504" t="s">
+        <v>456</v>
+      </c>
+      <c r="C504" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Software Developers, Applications</t>
+          <t>Medical Appliance Technicians</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>First-Line Supervisors of Mechanics, Installers, and Repairers</t>
+          <t>Aquacultural Managers</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Real Estate Brokers</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Business Intelligence Analysts</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Program Directors</t>
+          <t>Advertising Sales Agents</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Fundraisers</t>
+          <t>Advertising and Promotions Managers</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -7714,12 +7714,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Billing, Cost, and Rate Clerks</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Helpers--Installation, Maintenance, and Repair Workers</t>
+          <t>Electrical and Electronics Repairers, Commercial and Industrial Equipment</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -833,12 +833,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Office Clerks, General</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Advertising Sales Agents</t>
+          <t>Business Operations Specialists, All Other</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aircraft Mechanics and Service Technicians</t>
+          <t>Computer Programmers</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Web Developers</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1802,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Art Therapists</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>First-Line Supervisors of Personal Service Workers</t>
+          <t>Anesthesiologists</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Accountants</t>
+          <t>Accountants and Auditors</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>First-Line Supervisors of Agricultural Crop and Horticultural Workers</t>
+          <t>Heavy and Tractor-Trailer Truck Drivers</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Alternate Title</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Art, Drama, and Music Teachers, Postsecondary</t>
+          <t>Middle School Teachers, Except Special and Career/Technical Education</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Electrical and Electronic Equipment Assemblers</t>
+          <t>Biostatisticians</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Accountants</t>
+          <t>Cost Estimators</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>Alternate Title</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Civil Drafters</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>Alternate Title</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Architectural and Engineering Managers</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -5589,12 +5589,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Boilermakers</t>
+          <t>Welders, Cutters, and Welder Fitters</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Alternate Title</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Electrical and Electronics Repairers, Commercial and Industrial Equipment</t>
+          <t>Architectural and Civil Drafters</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Accountants and Auditors</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Business Operations Specialists, All Other</t>
+          <t>Broadcast Technicians</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Statistical Assistants</t>
+          <t>Aerospace Engineering and Operations Technicians</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -833,12 +833,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Computer Hardware Engineers</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Air Traffic Controllers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Artillery and Missile Crew Members</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Automotive Engineers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chefs and Head Cooks</t>
+          <t>Assemblers and Fabricators, All Other</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bioinformatics Scientists</t>
+          <t>Animal Scientists</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Computer Network Support Specialists</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Computer Network Architects</t>
+          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Business Operations Specialists, All Other</t>
+          <t>Advertising Sales Agents</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Computer Network Support Specialists</t>
+          <t>Automotive Engineers</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Civil Engineering Technicians</t>
+          <t>Artillery and Missile Crew Members</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Computer Operators</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Administrative Services Managers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cost Estimators</t>
+          <t>Advertising Sales Agents</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Architects, Except Landscape and Naval</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Artillery and Missile Crew Members</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Accountants and Auditors</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Agricultural Technicians</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Allergists and Immunologists</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Computer Operators</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anthropology and Archeology Teachers, Postsecondary</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Aircraft Cargo Handling Supervisors</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Art, Drama, and Music Teachers, Postsecondary</t>
+          <t>Adult Basic and Secondary Education and Literacy Teachers and Instructors</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Customer Service Representatives</t>
+          <t>Community and Social Service Specialists, All Other</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Archivists</t>
+          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Actuaries</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Court Clerks</t>
+          <t>Adhesive Bonding Machine Operators and Tenders</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Amusement and Recreation Attendants</t>
+          <t>Advertising and Promotions Managers</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acute Care Nurses</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Actuaries</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Baristas</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chief Executives</t>
+          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Aircraft Structure, Surfaces, Rigging, and Systems Assemblers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Climate Change Analysts</t>
+          <t>Actors</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Adapted Physical Education Specialists</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Middle School Teachers, Except Special and Career/Technical Education</t>
+          <t>Acute Care Nurses</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Command and Control Center Specialists</t>
+          <t>Laborers and Freight, Stock, and Material Movers, Hand</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -3060,12 +3060,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Advertising and Promotions Managers</t>
+          <t>Adapted Physical Education Specialists</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Biofuels Production Managers</t>
+          <t>Advertising and Promotions Managers</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Biostatisticians</t>
+          <t>Adapted Physical Education Specialists</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>Administrative Services Managers</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Aircraft Mechanics and Service Technicians</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Bioinformatics Scientists</t>
+          <t>Acupuncturists</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Command and Control Center Specialists</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Education Administrators, All Other</t>
+          <t>Agricultural Inspectors</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Arbitrators, Mediators, and Conciliators</t>
+          <t>Acupuncturists</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Administrative Services Managers</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Heavy and Tractor-Trailer Truck Drivers</t>
+          <t>Ambulance Drivers and Attendants, Except Emergency Medical Technicians</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Amusement and Recreation Attendants</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Helpers--Installation, Maintenance, and Repair Workers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Registered Nurses</t>
+          <t>Emergency Medical Technicians and Paramedics</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Billing, Cost, and Rate Clerks</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Cleaning, Washing, and Metal Pickling Equipment Operators and Tenders</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Air Crew Members</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Aerospace Engineering and Operations Technicians</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Advertising and Promotions Managers</t>
+          <t>Advertising Sales Agents</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Real Estate Brokers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4913,12 +4913,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Biochemical Engineers</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Computer Systems Analysts</t>
+          <t>Architectural and Engineering Managers</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cargo and Freight Agents</t>
+          <t>Air Crew Members</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Brickmasons and Blockmasons</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Court Clerks</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Architectural and Engineering Managers</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Electronics Engineers, Except Computer</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Artillery and Missile Officers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5844,12 +5844,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Biochemical Engineers</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>all</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Command and Control Center Specialists</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Biofuels/Biodiesel Technology and Product Development Managers</t>
+          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Business Intelligence Analysts</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Agricultural Workers, All Other</t>
+          <t>Actors</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Administrative Law Judges, Adjudicators, and Hearing Officers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6235,12 +6235,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Career/Technical Education Teachers, Secondary School</t>
+          <t>Adapted Physical Education Specialists</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Artillery and Missile Officers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6337,12 +6337,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Architectural and Engineering Managers</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Computer Network Support Specialists</t>
+          <t>Aerospace Engineering and Operations Technicians</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Computer Programmers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extraction Workers, All Other</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Advertising Sales Agents</t>
+          <t>Actuaries</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Advertising Sales Agents</t>
+          <t>Adapted Physical Education Specialists</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Advertising and Promotions Managers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Art Directors</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Agricultural Inspectors</t>
+          <t>Accountants and Auditors</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Data Entry Keyers</t>
+          <t>Archivists</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Administrative Services Managers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Agents and Business Managers of Artists, Performers, and Athletes</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Actors</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Billing, Cost, and Rate Clerks</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Amusement and Recreation Attendants</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Architects, Except Landscape and Naval</t>
+          <t>Acupuncturists</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Business Intelligence Analysts</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8139,12 +8139,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chief Executives</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Electro-Mechanical Technicians</t>
+          <t>Acupuncturists</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Education Administrators, Postsecondary</t>
+          <t>Adapted Physical Education Specialists</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Acute Care Nurses</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>pool accuracy</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Aerospace Engineers</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Architectural and Civil Drafters</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Aircraft Mechanics and Service Technicians</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Billing, Cost, and Rate Clerks</t>
+          <t>Accountants</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8972,12 +8972,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Amusement and Recreation Attendants</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>pool accuracy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cleaning, Washing, and Metal Pickling Equipment Operators and Tenders</t>
+          <t>Aerospace Engineers</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
